--- a/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_100_113_CAT_I_BUSHEL.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_100_113_CAT_I_BUSHEL.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,7 +815,9 @@
       <c r="D23" t="n">
         <v>19</v>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -827,7 +829,9 @@
       <c r="C24" t="n">
         <v>19</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>19</v>
+      </c>
       <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -837,9 +841,22 @@
       <c r="B25" t="n">
         <v>19</v>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>19</v>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B26" t="n">
+        <v>19</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -852,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,6 +1235,20 @@
         <v>16.29071235656738</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B26" t="n">
+        <v>15.34035682678223</v>
+      </c>
+      <c r="C26" t="n">
+        <v>16.72483825683594</v>
+      </c>
+      <c r="D26" t="n">
+        <v>16.46977424621582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_100_113_CAT_I_BUSHEL.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_100_113_CAT_I_BUSHEL.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,7 +832,9 @@
       <c r="D24" t="n">
         <v>19</v>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -844,7 +846,9 @@
       <c r="C25" t="n">
         <v>19</v>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>19</v>
+      </c>
       <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -854,9 +858,22 @@
       <c r="B26" t="n">
         <v>19</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>19</v>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B27" t="n">
+        <v>19</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -869,7 +886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,13 +921,13 @@
         <v>45509</v>
       </c>
       <c r="B2" t="n">
-        <v>16.01478958129883</v>
+        <v>16.25766372680664</v>
       </c>
       <c r="C2" t="n">
-        <v>16.07304954528809</v>
+        <v>17.22965621948242</v>
       </c>
       <c r="D2" t="n">
-        <v>16.00777816772461</v>
+        <v>16.83413887023926</v>
       </c>
     </row>
     <row r="3">
@@ -918,13 +935,13 @@
         <v>45516</v>
       </c>
       <c r="B3" t="n">
-        <v>16.07331466674805</v>
+        <v>16.20452117919922</v>
       </c>
       <c r="C3" t="n">
-        <v>16.59248161315918</v>
+        <v>17.08719635009766</v>
       </c>
       <c r="D3" t="n">
-        <v>16.89962005615234</v>
+        <v>16.74916076660156</v>
       </c>
     </row>
     <row r="4">
@@ -932,13 +949,13 @@
         <v>45523</v>
       </c>
       <c r="B4" t="n">
-        <v>15.80640316009521</v>
+        <v>15.75979423522949</v>
       </c>
       <c r="C4" t="n">
-        <v>16.50929832458496</v>
+        <v>16.30552101135254</v>
       </c>
       <c r="D4" t="n">
-        <v>16.30488586425781</v>
+        <v>16.62201690673828</v>
       </c>
     </row>
     <row r="5">
@@ -946,13 +963,13 @@
         <v>45530</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8541202545166</v>
+        <v>15.89534187316895</v>
       </c>
       <c r="C5" t="n">
-        <v>16.4902172088623</v>
+        <v>16.30704307556152</v>
       </c>
       <c r="D5" t="n">
-        <v>16.06990432739258</v>
+        <v>16.68005180358887</v>
       </c>
     </row>
     <row r="6">
@@ -960,13 +977,13 @@
         <v>45537</v>
       </c>
       <c r="B6" t="n">
-        <v>16.01219940185547</v>
+        <v>16.37814331054688</v>
       </c>
       <c r="C6" t="n">
-        <v>16.76363754272461</v>
+        <v>16.51597213745117</v>
       </c>
       <c r="D6" t="n">
-        <v>16.01738739013672</v>
+        <v>16.11379241943359</v>
       </c>
     </row>
     <row r="7">
@@ -974,13 +991,13 @@
         <v>45544</v>
       </c>
       <c r="B7" t="n">
-        <v>16.29069137573242</v>
+        <v>16.34580612182617</v>
       </c>
       <c r="C7" t="n">
-        <v>16.60876846313477</v>
+        <v>16.60359382629395</v>
       </c>
       <c r="D7" t="n">
-        <v>16.03282928466797</v>
+        <v>16.49323844909668</v>
       </c>
     </row>
     <row r="8">
@@ -988,13 +1005,13 @@
         <v>45551</v>
       </c>
       <c r="B8" t="n">
-        <v>15.96240425109863</v>
+        <v>16.3961067199707</v>
       </c>
       <c r="C8" t="n">
-        <v>16.26447296142578</v>
+        <v>16.56514739990234</v>
       </c>
       <c r="D8" t="n">
-        <v>16.09090614318848</v>
+        <v>16.17281723022461</v>
       </c>
     </row>
     <row r="9">
@@ -1002,13 +1019,13 @@
         <v>45558</v>
       </c>
       <c r="B9" t="n">
-        <v>16.07403945922852</v>
+        <v>15.99112606048584</v>
       </c>
       <c r="C9" t="n">
-        <v>15.5704288482666</v>
+        <v>15.82831192016602</v>
       </c>
       <c r="D9" t="n">
-        <v>16.15820503234863</v>
+        <v>15.81663227081299</v>
       </c>
     </row>
     <row r="10">
@@ -1016,13 +1033,13 @@
         <v>45565</v>
       </c>
       <c r="B10" t="n">
-        <v>15.60309791564941</v>
+        <v>15.44144344329834</v>
       </c>
       <c r="C10" t="n">
-        <v>15.73331546783447</v>
+        <v>15.84564304351807</v>
       </c>
       <c r="D10" t="n">
-        <v>16.20897674560547</v>
+        <v>15.77160930633545</v>
       </c>
     </row>
     <row r="11">
@@ -1030,13 +1047,13 @@
         <v>45572</v>
       </c>
       <c r="B11" t="n">
-        <v>15.42343235015869</v>
+        <v>15.58377170562744</v>
       </c>
       <c r="C11" t="n">
-        <v>15.78608989715576</v>
+        <v>15.8623571395874</v>
       </c>
       <c r="D11" t="n">
-        <v>16.26520729064941</v>
+        <v>15.804931640625</v>
       </c>
     </row>
     <row r="12">
@@ -1044,13 +1061,13 @@
         <v>45579</v>
       </c>
       <c r="B12" t="n">
-        <v>15.61136913299561</v>
+        <v>15.56238746643066</v>
       </c>
       <c r="C12" t="n">
-        <v>15.68991088867188</v>
+        <v>16.03540992736816</v>
       </c>
       <c r="D12" t="n">
-        <v>16.37083625793457</v>
+        <v>16.09013175964355</v>
       </c>
     </row>
     <row r="13">
@@ -1058,13 +1075,13 @@
         <v>45586</v>
       </c>
       <c r="B13" t="n">
-        <v>15.41674995422363</v>
+        <v>15.5484504699707</v>
       </c>
       <c r="C13" t="n">
-        <v>15.84120273590088</v>
+        <v>15.9779577255249</v>
       </c>
       <c r="D13" t="n">
-        <v>16.29552268981934</v>
+        <v>16.08549690246582</v>
       </c>
     </row>
     <row r="14">
@@ -1072,13 +1089,13 @@
         <v>45593</v>
       </c>
       <c r="B14" t="n">
-        <v>15.33385562896729</v>
+        <v>15.30543804168701</v>
       </c>
       <c r="C14" t="n">
-        <v>16.33334350585938</v>
+        <v>15.91806125640869</v>
       </c>
       <c r="D14" t="n">
-        <v>15.83417701721191</v>
+        <v>15.68130779266357</v>
       </c>
     </row>
     <row r="15">
@@ -1086,13 +1103,13 @@
         <v>45600</v>
       </c>
       <c r="B15" t="n">
-        <v>15.58737182617188</v>
+        <v>15.42295265197754</v>
       </c>
       <c r="C15" t="n">
-        <v>16.18724822998047</v>
+        <v>16.03565216064453</v>
       </c>
       <c r="D15" t="n">
-        <v>16.03159523010254</v>
+        <v>15.54294586181641</v>
       </c>
     </row>
     <row r="16">
@@ -1100,13 +1117,13 @@
         <v>45607</v>
       </c>
       <c r="B16" t="n">
-        <v>15.59331607818604</v>
+        <v>15.50500679016113</v>
       </c>
       <c r="C16" t="n">
-        <v>16.37097549438477</v>
+        <v>16.1833381652832</v>
       </c>
       <c r="D16" t="n">
-        <v>15.90131282806396</v>
+        <v>15.56223297119141</v>
       </c>
     </row>
     <row r="17">
@@ -1114,13 +1131,13 @@
         <v>45614</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5917444229126</v>
+        <v>15.43179130554199</v>
       </c>
       <c r="C17" t="n">
-        <v>16.45288467407227</v>
+        <v>16.28414916992188</v>
       </c>
       <c r="D17" t="n">
-        <v>16.09581184387207</v>
+        <v>15.35153579711914</v>
       </c>
     </row>
     <row r="18">
@@ -1128,13 +1145,13 @@
         <v>45621</v>
       </c>
       <c r="B18" t="n">
-        <v>15.52218437194824</v>
+        <v>15.44674110412598</v>
       </c>
       <c r="C18" t="n">
-        <v>16.54153060913086</v>
+        <v>16.24997711181641</v>
       </c>
       <c r="D18" t="n">
-        <v>16.07512474060059</v>
+        <v>15.55325889587402</v>
       </c>
     </row>
     <row r="19">
@@ -1142,13 +1159,13 @@
         <v>45628</v>
       </c>
       <c r="B19" t="n">
-        <v>15.44092845916748</v>
+        <v>15.35135364532471</v>
       </c>
       <c r="C19" t="n">
-        <v>17.05383682250977</v>
+        <v>16.4708251953125</v>
       </c>
       <c r="D19" t="n">
-        <v>15.89237117767334</v>
+        <v>15.80793762207031</v>
       </c>
     </row>
     <row r="20">
@@ -1156,13 +1173,13 @@
         <v>45635</v>
       </c>
       <c r="B20" t="n">
-        <v>15.44521903991699</v>
+        <v>15.35170078277588</v>
       </c>
       <c r="C20" t="n">
-        <v>15.95026206970215</v>
+        <v>16.51374435424805</v>
       </c>
       <c r="D20" t="n">
-        <v>16.23248863220215</v>
+        <v>15.73494243621826</v>
       </c>
     </row>
     <row r="21">
@@ -1170,13 +1187,13 @@
         <v>45642</v>
       </c>
       <c r="B21" t="n">
-        <v>15.3395824432373</v>
+        <v>15.35513210296631</v>
       </c>
       <c r="C21" t="n">
-        <v>16.48124313354492</v>
+        <v>16.43366050720215</v>
       </c>
       <c r="D21" t="n">
-        <v>16.22305488586426</v>
+        <v>15.62760257720947</v>
       </c>
     </row>
     <row r="22">
@@ -1184,13 +1201,13 @@
         <v>45649</v>
       </c>
       <c r="B22" t="n">
-        <v>15.37286949157715</v>
+        <v>15.47687244415283</v>
       </c>
       <c r="C22" t="n">
-        <v>16.18166732788086</v>
+        <v>16.08044624328613</v>
       </c>
       <c r="D22" t="n">
-        <v>16.63755989074707</v>
+        <v>15.71468830108643</v>
       </c>
     </row>
     <row r="23">
@@ -1198,13 +1215,13 @@
         <v>45663</v>
       </c>
       <c r="B23" t="n">
-        <v>15.3971643447876</v>
+        <v>15.36010551452637</v>
       </c>
       <c r="C23" t="n">
-        <v>16.54356002807617</v>
+        <v>16.18622207641602</v>
       </c>
       <c r="D23" t="n">
-        <v>16.5845890045166</v>
+        <v>15.47565937042236</v>
       </c>
     </row>
     <row r="24">
@@ -1212,13 +1229,13 @@
         <v>45670</v>
       </c>
       <c r="B24" t="n">
-        <v>15.59318161010742</v>
+        <v>15.55440330505371</v>
       </c>
       <c r="C24" t="n">
-        <v>16.55091094970703</v>
+        <v>16.30912208557129</v>
       </c>
       <c r="D24" t="n">
-        <v>16.62950706481934</v>
+        <v>15.57648181915283</v>
       </c>
     </row>
     <row r="25">
@@ -1226,13 +1243,13 @@
         <v>45677</v>
       </c>
       <c r="B25" t="n">
-        <v>15.32277774810791</v>
+        <v>15.48901176452637</v>
       </c>
       <c r="C25" t="n">
-        <v>16.72721862792969</v>
+        <v>16.21052742004395</v>
       </c>
       <c r="D25" t="n">
-        <v>16.29071235656738</v>
+        <v>15.60962390899658</v>
       </c>
     </row>
     <row r="26">
@@ -1240,13 +1257,27 @@
         <v>45684</v>
       </c>
       <c r="B26" t="n">
-        <v>15.34035682678223</v>
+        <v>15.54146766662598</v>
       </c>
       <c r="C26" t="n">
-        <v>16.72483825683594</v>
+        <v>16.26035118103027</v>
       </c>
       <c r="D26" t="n">
-        <v>16.46977424621582</v>
+        <v>16.19813346862793</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B27" t="n">
+        <v>15.55316162109375</v>
+      </c>
+      <c r="C27" t="n">
+        <v>16.3908519744873</v>
+      </c>
+      <c r="D27" t="n">
+        <v>15.58011531829834</v>
       </c>
     </row>
   </sheetData>
